--- a/data/case1/5/P_device_13.xlsx
+++ b/data/case1/5/P_device_13.xlsx
@@ -56,32 +56,32 @@
   <dimension ref="A1:B4"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.42578125" customWidth="true"/>
+    <col min="1" max="1" width="14.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.012809485484232191</v>
+        <v>-0.058712873528375502</v>
       </c>
       <c r="B1" s="0">
-        <v>0.012809484101307946</v>
+        <v>0.058712872106111209</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.020203940747910997</v>
+        <v>0.0050900061247426973</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.020203942075279459</v>
+        <v>-0.0050900075934149549</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.061675594169904473</v>
+        <v>0.0081973339691865446</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.061675595545413964</v>
+        <v>-0.0081973355188688091</v>
       </c>
     </row>
     <row r="4">
